--- a/experiments/pg/return_discount_increment/branch_3_traj_50_batch_30_max_rew_mlp_5x200_20k_epochs_eps_1e_8_alpha_ret_1e_1/log_best_traj.xlsx
+++ b/experiments/pg/return_discount_increment/branch_3_traj_50_batch_30_max_rew_mlp_5x200_20k_epochs_eps_1e_8_alpha_ret_1e_1/log_best_traj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1151"/>
+  <dimension ref="A1:K1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52568,6 +52568,2312 @@
         </is>
       </c>
     </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1152" t="n">
+        <v>24.93409097196339</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1152" t="inlineStr">
+        <is>
+          <t>[0.23216867446899414, 0.03867471590638161, 0.10536421835422516, 0.19050166010856628, 0.01451180875301361, 0.22943460941314697, 0.036228906363248825, 0.14791220426559448, 0.005203154403716326]</t>
+        </is>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>[0.8685969710350037, 0.13140301406383514]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>[-1  0  0  0  0  0  0  0  0]</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>[0 1]</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>23.81196312390229</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1153" t="inlineStr">
+        <is>
+          <t>[0.21115891635417938, 0.039120957255363464, 0.10591724514961243, 0.17806363105773926, 0.014760122634470463, 0.2571621239185333, 0.03110758401453495, 0.1573970913887024, 0.005312337074428797]</t>
+        </is>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>[0.8366205096244812, 0.1633794605731964]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>25.75810135017855</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1154" t="inlineStr">
+        <is>
+          <t>[0.2292896807193756, 0.03866187110543251, 0.10526644438505173, 0.18656599521636963, 0.014263193123042583, 0.23477880656719208, 0.036336589604616165, 0.1496303230524063, 0.00520710414275527]</t>
+        </is>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>[0.8730446696281433, 0.1269553154706955]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>[ 0 -1  0  0  0  0  0  0  0]</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>[ 5 -1]</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>25.75809693510827</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1155" t="inlineStr">
+        <is>
+          <t>[0.2207918018102646, 0.03835904225707054, 0.10269071906805038, 0.1858823597431183, 0.014092696830630302, 0.25169938802719116, 0.03746034577488899, 0.14368398487567902, 0.005339659750461578]</t>
+        </is>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>[0.8781648874282837, 0.12183511257171631]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>[ 0 -1  0  0  0 -1  0  0  0]</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>[3 1]</t>
+        </is>
+      </c>
+      <c r="E1156" t="n">
+        <v>29.25547380602216</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1156" t="inlineStr">
+        <is>
+          <t>[0.2466328889131546, 0.03539593145251274, 0.10614271461963654, 0.18960902094841003, 0.013738122768700123, 0.21298226714134216, 0.0375097282230854, 0.152436763048172, 0.005552527494728565]</t>
+        </is>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>[0.8649142384529114, 0.13508568704128265]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>[ 0 -1  0  1  0 -1  0  0  0]</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>[0 1]</t>
+        </is>
+      </c>
+      <c r="E1157" t="n">
+        <v>28.02603741666622</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1157" t="inlineStr">
+        <is>
+          <t>[0.24707676470279694, 0.035158805549144745, 0.10478799790143967, 0.2002606987953186, 0.014667453244328499, 0.21346689760684967, 0.03893463313579559, 0.1401674747467041, 0.005479298532009125]</t>
+        </is>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>[0.8802650570869446, 0.11973492801189423]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>[ 1 -1  0  1  0 -1  0  0  0]</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>[ 7 -1]</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>29.24733160163917</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1158" t="inlineStr">
+        <is>
+          <t>[0.25462019443511963, 0.03513168543577194, 0.10532499849796295, 0.20581784844398499, 0.014345267787575722, 0.19874025881290436, 0.04459671303629875, 0.13591012358665466, 0.005512902978807688]</t>
+        </is>
+      </c>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>[0.8954808115959167, 0.10451919585466385]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>[ 1 -1  0  1  0 -1  0 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>30.29477248188249</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1159" t="inlineStr">
+        <is>
+          <t>[0.24194303154945374, 0.03158559277653694, 0.11533559113740921, 0.2045968472957611, 0.014504100196063519, 0.22986753284931183, 0.045707084238529205, 0.11144889891147614, 0.005011340137571096]</t>
+        </is>
+      </c>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>[0.8897523880004883, 0.11024758964776993]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>[ 1 -2  0  1  0 -1  0 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>29.93485597042891</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1160" t="inlineStr">
+        <is>
+          <t>[0.23054710030555725, 0.031597163528203964, 0.11222649365663528, 0.202914297580719, 0.014486979693174362, 0.24871376156806946, 0.04574088379740715, 0.10863512009382248, 0.00513810571283102]</t>
+        </is>
+      </c>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>[0.8936304450035095, 0.10636957734823227]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>[ 0 -2  0  1  0 -1  0 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>[ 5 -1]</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>30.25077514830255</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1161" t="inlineStr">
+        <is>
+          <t>[0.2201983630657196, 0.03135126456618309, 0.11174087971448898, 0.1941167712211609, 0.014591940678656101, 0.2720576822757721, 0.04018116369843483, 0.11064500361680984, 0.005116899497807026]</t>
+        </is>
+      </c>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>[0.8779874444007874, 0.12201259285211563]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>[ 0 -2  0  1  0 -2  0 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>32.71219980457474</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>4.230993270874023</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1162" t="inlineStr">
+        <is>
+          <t>[0.2436642050743103, 0.02951357513666153, 0.11585938930511475, 0.19840654730796814, 0.014374999329447746, 0.23342642188072205, 0.04038866236805916, 0.11895675957202911, 0.0054094912484288216]</t>
+        </is>
+      </c>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>[0.8530281186103821, 0.14697186648845673]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>[-1 -2  0  1  0 -2  0 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>[ 6 -1]</t>
+        </is>
+      </c>
+      <c r="E1163" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1163" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1163" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1163" t="inlineStr">
+        <is>
+          <t>[0.22497300803661346, 0.029985032975673676, 0.11703633517026901, 0.1897173970937729, 0.014849183149635792, 0.26060470938682556, 0.03523267060518265, 0.12208496034145355, 0.005516632925719023]</t>
+        </is>
+      </c>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>[0.7224456071853638, 0.27755436301231384]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>[-1 -2  0  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>[7 1]</t>
+        </is>
+      </c>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1164" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1164" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1164" t="inlineStr">
+        <is>
+          <t>[0.2213626503944397, 0.029091008007526398, 0.12309719622135162, 0.17382164299488068, 0.014390001073479652, 0.27414122223854065, 0.04006906971335411, 0.11851745843887329, 0.005509776528924704]</t>
+        </is>
+      </c>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>[0.39486393332481384, 0.6051360964775085]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>[-1 -2  0  1  0 -2 -1  0  0]</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>[ 7 -1]</t>
+        </is>
+      </c>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1165" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1165" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1165" t="inlineStr">
+        <is>
+          <t>[0.23116354644298553, 0.03236275911331177, 0.11306455731391907, 0.17173747718334198, 0.014014579355716705, 0.2422337830066681, 0.04013682156801224, 0.1491672694683075, 0.006119253113865852]</t>
+        </is>
+      </c>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>[0.7389551401138306, 0.26104483008384705]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>[-1 -2  0  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>[ 5 -1]</t>
+        </is>
+      </c>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1166" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1166" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1166" t="inlineStr">
+        <is>
+          <t>[0.2176508605480194, 0.0291488915681839, 0.12327292561531067, 0.1708468198776245, 0.014218423515558243, 0.27991983294487, 0.03994120657444, 0.11944931745529175, 0.005551699083298445]</t>
+        </is>
+      </c>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>[0.4730924367904663, 0.5269075632095337]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>[-1 -2  0  1  0 -3 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>[5 1]</t>
+        </is>
+      </c>
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1167" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1167" t="inlineStr">
+        <is>
+          <t>[0.23868703842163086, 0.027772989124059677, 0.1289210170507431, 0.17442305386066437, 0.014249198138713837, 0.24110627174377441, 0.040111131966114044, 0.1287851333618164, 0.005944191012531519]</t>
+        </is>
+      </c>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>[0.08617047220468521, 0.9138295650482178]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>[-1 -2  0  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>[2 1]</t>
+        </is>
+      </c>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1168" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1168" t="inlineStr">
+        <is>
+          <t>[0.21376611292362213, 0.02922055311501026, 0.12346198409795761, 0.1678582727909088, 0.0140589764341712, 0.28588244318962097, 0.03979719802737236, 0.12035694718360901, 0.005597557406872511]</t>
+        </is>
+      </c>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>[0.5458130240440369, 0.45418697595596313]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>[-1 -2  1  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1169" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1169" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1169" t="inlineStr">
+        <is>
+          <t>[0.21052616834640503, 0.029441332444548607, 0.12822040915489197, 0.16797597706317902, 0.015361214987933636, 0.2848198413848877, 0.03930354490876198, 0.11864340305328369, 0.005708140321075916]</t>
+        </is>
+      </c>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>[0.7595424652099609, 0.24045751988887787]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>[-1 -2  0  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>[5 1]</t>
+        </is>
+      </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1170" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1170" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1170" t="inlineStr">
+        <is>
+          <t>[0.2097271978855133, 0.029305724427103996, 0.12366054207086563, 0.16486068069934845, 0.013911212794482708, 0.29201173782348633, 0.03963875398039818, 0.12123685330152512, 0.0056472960859537125]</t>
+        </is>
+      </c>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>[0.60911625623703, 0.39088377356529236]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>[-1 -2  0  1  0 -1 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>[ 5 -1]</t>
+        </is>
+      </c>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1171" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1171" t="inlineStr">
+        <is>
+          <t>[0.18317599594593048, 0.030881233513355255, 0.11873173713684082, 0.15510442852973938, 0.013867264613509178, 0.3402324616909027, 0.03914292901754379, 0.11345858871936798, 0.005405341275036335]</t>
+        </is>
+      </c>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>[0.8210791945457458, 0.17892085015773773]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>[-1 -2  0  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1172" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1172" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1172" t="inlineStr">
+        <is>
+          <t>[0.20555379986763, 0.02940410003066063, 0.12386498600244522, 0.16185875236988068, 0.013774730265140533, 0.2982891798019409, 0.03946763649582863, 0.12208598852157593, 0.005700837355107069]</t>
+        </is>
+      </c>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>[0.6617923974990845, 0.33820757269859314]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>[-2 -2  0  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>[2 1]</t>
+        </is>
+      </c>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1173" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1173" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1173" t="inlineStr">
+        <is>
+          <t>[0.18144984543323517, 0.03005369007587433, 0.12632617354393005, 0.15245264768600464, 0.014422975480556488, 0.33039963245391846, 0.03411867469549179, 0.1248202696442604, 0.005956070031970739]</t>
+        </is>
+      </c>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>[0.14787115156650543, 0.8521288633346558]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>[-2 -2  1  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>[ 5 -1]</t>
+        </is>
+      </c>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1174" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1174" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1174" t="inlineStr">
+        <is>
+          <t>[0.17738176882266998, 0.030333390459418297, 0.13132287561893463, 0.15168561041355133, 0.015754496678709984, 0.33012452721595764, 0.03366377204656601, 0.1236356571316719, 0.00609790813177824]</t>
+        </is>
+      </c>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>[0.5166489481925964, 0.48335108160972595]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>[-2 -2  1  1  0 -3 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>[5 1]</t>
+        </is>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1175" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1175" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1175" t="inlineStr">
+        <is>
+          <t>[0.19788621366024017, 0.029127012938261032, 0.13738365471363068, 0.15896788239479065, 0.015861820429563522, 0.2874690592288971, 0.03401913866400719, 0.1327991932630539, 0.006486069411039352]</t>
+        </is>
+      </c>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>[0.12346259504556656, 0.8765374422073364]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>[-2 -2  1  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>[5 1]</t>
+        </is>
+      </c>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1176" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1176" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1176" t="inlineStr">
+        <is>
+          <t>[0.17325733602046967, 0.030437828972935677, 0.13139349222183228, 0.14871588349342346, 0.015618417412042618, 0.336569219827652, 0.03349951282143593, 0.12433512508869171, 0.006173119880259037]</t>
+        </is>
+      </c>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>[0.5798001289367676, 0.4201998710632324]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>[-2 -2  1  1  0 -1 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1177" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1177" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1177" t="inlineStr">
+        <is>
+          <t>[0.148392453789711, 0.03181552514433861, 0.12603279948234558, 0.13630183041095734, 0.015557113103568554, 0.38645339012145996, 0.03297034278512001, 0.11651486903429031, 0.005961639806628227]</t>
+        </is>
+      </c>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>[0.8132488131523132, 0.18675117194652557]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>[-3 -2  1  1  0 -1 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>[ 5 -1]</t>
+        </is>
+      </c>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1178" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1178" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1178" t="inlineStr">
+        <is>
+          <t>[0.12554045021533966, 0.03279753029346466, 0.12892094254493713, 0.12480320036411285, 0.016509629786014557, 0.4160518944263458, 0.028656918555498123, 0.12028883397579193, 0.006430633831769228]</t>
+        </is>
+      </c>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>[0.5990514159202576, 0.40094858407974243]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>[-3 -2  1  1  0 -2 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>[5 1]</t>
+        </is>
+      </c>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1179" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1179" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1179" t="inlineStr">
+        <is>
+          <t>[0.14398564398288727, 0.031691741198301315, 0.13442012667655945, 0.13508345186710358, 0.016464775428175926, 0.3742966949939728, 0.028997575864195824, 0.12837769091129303, 0.006682306062430143]</t>
+        </is>
+      </c>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>[0.18939334154129028, 0.8106065988540649]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>[-3 -2  1  1  0 -1 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>[3 1]</t>
+        </is>
+      </c>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1180" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1180" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1180" t="inlineStr">
+        <is>
+          <t>[0.1224353015422821, 0.03291982412338257, 0.1288371980190277, 0.12202935665845871, 0.01639067940413952, 0.4215024709701538, 0.02853468991816044, 0.12081990391016006, 0.0065305521711707115]</t>
+        </is>
+      </c>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>[0.6493543386459351, 0.35064566135406494]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>[-3 -2  1  2  0 -1 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1181" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1181" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1181" t="inlineStr">
+        <is>
+          <t>[0.11893822252750397, 0.03258344531059265, 0.12851889431476593, 0.12258891761302948, 0.0176869947463274, 0.42925941944122314, 0.029433250427246094, 0.11442822962999344, 0.006562606431543827]</t>
+        </is>
+      </c>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>[0.7975176572799683, 0.20248237252235413]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>[-4 -2  1  2  0 -1 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1182" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1182" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1182" t="inlineStr">
+        <is>
+          <t>[0.09878288209438324, 0.033994220197200775, 0.1314626932144165, 0.11036056280136108, 0.019027892500162125, 0.4539819657802582, 0.02601347677409649, 0.11916647106409073, 0.007209844887256622]</t>
+        </is>
+      </c>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>[0.5616477727890015, 0.43835219740867615]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>[-4 -2  0  2  0 -1 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>[ 3 -1]</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1183" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1183" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1183" t="inlineStr">
+        <is>
+          <t>[0.09973164647817612, 0.03380953148007393, 0.1259581446647644, 0.11018056422472, 0.017259152606129646, 0.46028250455856323, 0.026006320491433144, 0.11965480446815491, 0.007117252331227064]</t>
+        </is>
+      </c>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>[0.27120357751846313, 0.7287964224815369]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>[-4 -2  0  1  0 -1 -1 -1  0]</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>[7 1]</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1184" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1184" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1184" t="inlineStr">
+        <is>
+          <t>[0.10099151730537415, 0.03438195958733559, 0.12631723284721375, 0.10830183327198029, 0.01599825732409954, 0.455363005399704, 0.02519085630774498, 0.1262596845626831, 0.0071957348845899105]</t>
+        </is>
+      </c>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>[0.10132423043251038, 0.8986757397651672]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>[-4 -2  0  1  0 -1 -1  0  0]</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>[5 1]</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1185" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1185" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1185" t="inlineStr">
+        <is>
+          <t>[0.10078269988298416, 0.038222167640924454, 0.11724960803985596, 0.10350353270769119, 0.01558974664658308, 0.4281470775604248, 0.025339683517813683, 0.1632011979818344, 0.007964293472468853]</t>
+        </is>
+      </c>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>[0.45001986622810364, 0.549980103969574]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>[-4 -2  0  1  0  0 -1  0  0]</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>[ 5 -1]</t>
+        </is>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1186" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1186" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1186" t="inlineStr">
+        <is>
+          <t>[0.08421792089939117, 0.03963532671332359, 0.11236045509576797, 0.09136229753494263, 0.015650173649191856, 0.46778568625450134, 0.025100961327552795, 0.15586835145950317, 0.008018790744245052]</t>
+        </is>
+      </c>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>[0.7642218470573425, 0.23577815294265747]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>[-4 -2  0  1  0 -1 -1  0  0]</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>[2 1]</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1187" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1187" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1187" t="inlineStr">
+        <is>
+          <t>[0.09821680188179016, 0.03839077055454254, 0.11724011600017548, 0.10125453025102615, 0.015568767674267292, 0.43238723278045654, 0.025296030566096306, 0.16355350613594055, 0.00809225533157587]</t>
+        </is>
+      </c>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>[0.5143827199935913, 0.4856172800064087]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>[-4 -2  1  1  0 -1 -1  0  0]</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>[7 1]</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1188" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1188" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1188" t="inlineStr">
+        <is>
+          <t>[0.09499367326498032, 0.03865096718072891, 0.12132732570171356, 0.0994601771235466, 0.016908852383494377, 0.43247005343437195, 0.025076180696487427, 0.16285169124603271, 0.008261056616902351]</t>
+        </is>
+      </c>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>[0.7404220104217529, 0.25957801938056946]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>[-4 -2  1  1  0 -1 -1  1  0]</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1189" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1189" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1189" t="inlineStr">
+        <is>
+          <t>[0.09394492954015732, 0.04314256086945534, 0.11287013441324234, 0.09367672353982925, 0.016697663813829422, 0.396262526512146, 0.025358330458402634, 0.20876024663448334, 0.009286835789680481]</t>
+        </is>
+      </c>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>[0.8370563387870789, 0.16294360160827637]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>[-5 -2  1  1  0 -1 -1  1  0]</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>[ 5 -1]</t>
+        </is>
+      </c>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1190" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1190" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1190" t="inlineStr">
+        <is>
+          <t>[0.07698944211006165, 0.04481217637658119, 0.11540305614471436, 0.08433366566896439, 0.018063483759760857, 0.41666996479034424, 0.022981280460953712, 0.21061797440052032, 0.010129011236131191]</t>
+        </is>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>[0.7415716648101807, 0.25842833518981934]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>[-5 -2  1  1  0 -2 -1  1  0]</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>[6 1]</t>
+        </is>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1191" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1191" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1191" t="inlineStr">
+        <is>
+          <t>[0.08885910362005234, 0.04326857998967171, 0.12008947134017944, 0.09344232827425003, 0.01814013533294201, 0.38321998715400696, 0.023002004250884056, 0.2197689712047577, 0.010209423489868641]</t>
+        </is>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>[0.514197826385498, 0.48580214381217957]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>[-5 -2  1  1  0 -2  0  1  0]</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>[ 5 -1]</t>
+        </is>
+      </c>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1192" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1192" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1192" t="inlineStr">
+        <is>
+          <t>[0.08571693301200867, 0.04476231336593628, 0.11517848074436188, 0.09679603576660156, 0.01883605867624283, 0.37755563855171204, 0.021242598071694374, 0.22932863235473633, 0.010583387687802315]</t>
+        </is>
+      </c>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>[0.7712534666061401, 0.2287464588880539]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>[-5 -2  1  1  0 -3  0  1  0]</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>[7 1]</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1193" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1193" t="inlineStr">
+        <is>
+          <t>[0.09827692061662674, 0.04316867142915726, 0.12030323594808578, 0.10667285323143005, 0.01908170059323311, 0.34318917989730835, 0.02143542841076851, 0.23719210922718048, 0.010679911822080612]</t>
+        </is>
+      </c>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>[0.5717536807060242, 0.42824631929397583]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>[-5 -2  1  1  0 -3  0  2  0]</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>[ 7 -1]</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1194" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1194" t="inlineStr">
+        <is>
+          <t>[0.0953436940908432, 0.04683595895767212, 0.11231128871440887, 0.098658487200737, 0.01902877539396286, 0.3062070310115814, 0.021714484319090843, 0.28804683685302734, 0.011853456497192383]</t>
+        </is>
+      </c>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>[0.7855819463729858, 0.21441806852817535]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>[-5 -2  1  1  0 -3  0  1  0]</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>[1 1]</t>
+        </is>
+      </c>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1195" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1195" t="inlineStr">
+        <is>
+          <t>[0.09582186490297318, 0.043226081877946854, 0.12026990950107574, 0.10460413992404938, 0.019068831577897072, 0.3482336401939392, 0.021468348801136017, 0.2364978790283203, 0.010809297673404217]</t>
+        </is>
+      </c>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>[0.6135260462760925, 0.38647395372390747]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>[-5 -1  1  1  0 -3  0  1  0]</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>[7 1]</t>
+        </is>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1196" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1196" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1196" t="inlineStr">
+        <is>
+          <t>[0.08989665657281876, 0.04454873502254486, 0.12054944783449173, 0.09824772924184799, 0.019054803997278214, 0.3497430682182312, 0.020694904029369354, 0.24640488624572754, 0.01085981447249651]</t>
+        </is>
+      </c>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>[0.653430163860321, 0.34656986594200134]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>[-5 -1  1  1  0 -3  0  2  0]</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>[ 7 -1]</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1197" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1197" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1197" t="inlineStr">
+        <is>
+          <t>[0.08635904639959335, 0.04829064756631851, 0.11200956255197525, 0.09036378562450409, 0.018970126286149025, 0.31290242075920105, 0.021034814417362213, 0.2980509400367737, 0.012018641456961632]</t>
+        </is>
+      </c>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>[0.8112437725067139, 0.18875618278980255]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>[-5 -1  1  1  0 -3  0  1  0]</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1198" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1198" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1198" t="inlineStr">
+        <is>
+          <t>[0.08758997172117233, 0.04465268924832344, 0.12048429995775223, 0.09633295983076096, 0.01905338279902935, 0.3547636866569519, 0.02073500119149685, 0.24539610743522644, 0.010991936549544334]</t>
+        </is>
+      </c>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>[0.6853548884391785, 0.3146451711654663]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>[-6 -1  1  1  0 -3  0  1  0]</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>[0 1]</t>
+        </is>
+      </c>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1199" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1199" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1199" t="inlineStr">
+        <is>
+          <t>[0.07237833738327026, 0.04670751467347145, 0.12215481698513031, 0.08705814182758331, 0.020536789670586586, 0.37550199031829834, 0.019392147660255432, 0.24432209134101868, 0.011948168277740479]</t>
+        </is>
+      </c>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>[0.41856905817985535, 0.581430971622467]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>[-5 -1  1  1  0 -3  0  1  0]</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>[ 3 -1]</t>
+        </is>
+      </c>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1200" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1200" t="inlineStr">
+        <is>
+          <t>[0.08535964041948318, 0.044773273169994354, 0.12042122334241867, 0.09447555989027023, 0.019063424319028854, 0.35965195298194885, 0.020783158019185066, 0.24434345960617065, 0.011128284968435764]</t>
+        </is>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>[0.7127929925918579, 0.2872069776058197]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>[-5 -1  1  0  0 -3  0  1  0]</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>[7 1]</t>
+        </is>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1201" t="n">
+        <v>31.7524275908717</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.9597722137030402</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>0.8470277807624341</v>
+      </c>
+      <c r="J1201" t="inlineStr">
+        <is>
+          <t>[0.08701504021883011, 0.04472128301858902, 0.12110069394111633, 0.09308601170778275, 0.01815948449075222, 0.35032495856285095, 0.020443901419639587, 0.2538818418979645, 0.011266801506280899]</t>
+        </is>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>[0.5571041703224182, 0.4428957998752594]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
